--- a/sekkeisyo/詳細設計演習/画面遷移図_プログラミング実習.xlsx
+++ b/sekkeisyo/詳細設計演習/画面遷移図_プログラミング実習.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\workspace\test\設計書\詳細設計演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\D.I.Works_text\17_追加課題6 設計書\詳細設計演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6886EB94-B98E-40DB-B302-4ABFFE9CCFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D70C27-2700-48CC-B0A4-9B6FCAEAB041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -554,40 +554,6 @@
     <t>TOPページボタン押下</t>
     <rPh sb="9" eb="11">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>左に→</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>左から上に</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>統一感</t>
-    <rPh sb="0" eb="2">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>リストが表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4835,13 +4801,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>119238</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>18345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>17638</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>11995</xdr:rowOff>
@@ -4945,13 +4911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -5047,13 +5013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>97367</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>88194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>97617</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>113344</xdr:rowOff>
@@ -5105,13 +5071,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>24343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>255763</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>35279</xdr:rowOff>
@@ -5207,13 +5173,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>272698</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>194028</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>26458</xdr:rowOff>
@@ -5309,13 +5275,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>10705</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>22946</xdr:rowOff>
@@ -5368,13 +5334,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>37793</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>45065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>37793</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>140065</xdr:rowOff>
@@ -5426,16 +5392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>12216</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229518</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>17639</xdr:rowOff>
+      <xdr:rowOff>38253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44098</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23555</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>62448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5451,9 +5417,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5092216" y="987778"/>
-          <a:ext cx="596326" cy="7921"/>
+        <a:xfrm>
+          <a:off x="1078735" y="1017530"/>
+          <a:ext cx="3190904" cy="24195"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5484,16 +5450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>259067</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191265</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68465</xdr:rowOff>
+      <xdr:rowOff>107109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>75634</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68465</xdr:rowOff>
+      <xdr:rowOff>110143</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5504,12 +5470,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339067" y="3737354"/>
-          <a:ext cx="381011" cy="0"/>
+          <a:off x="1040482" y="3817651"/>
+          <a:ext cx="3310376" cy="3034"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5534,16 +5502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>46989</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198917</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27917</xdr:rowOff>
+      <xdr:rowOff>38253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61737</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>206566</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:rowOff>130060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5557,9 +5525,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5691433" y="998056"/>
-          <a:ext cx="14748" cy="2741388"/>
+        <a:xfrm flipH="1">
+          <a:off x="1048134" y="1017530"/>
+          <a:ext cx="7649" cy="2823072"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5584,13 +5552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>79374</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>70556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>127706</xdr:rowOff>
@@ -5665,13 +5633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>8820</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>9660</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>43054</xdr:rowOff>
@@ -5723,16 +5691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160662</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>132293</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66747</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5745,13 +5713,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2081389" y="1059039"/>
-          <a:ext cx="1368778" cy="995893"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2708313" y="2417590"/>
+          <a:ext cx="472229" cy="13861"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5782,16 +5749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71693</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35278</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>62589</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5808,8 +5775,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2778125" y="5891388"/>
-          <a:ext cx="643820" cy="1"/>
+          <a:off x="2365887" y="6080015"/>
+          <a:ext cx="851218" cy="3695"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5840,16 +5807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203954</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:rowOff>133735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>106890</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>73131</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90312</xdr:rowOff>
+      <xdr:rowOff>144671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5864,8 +5831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="520346" y="2160765"/>
-          <a:ext cx="1844322" cy="487186"/>
+          <a:off x="770099" y="2237651"/>
+          <a:ext cx="1850683" cy="492924"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5942,16 +5909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>246944</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>132292</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244819</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>137230</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141113</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5968,8 +5935,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2504722" y="2372431"/>
-          <a:ext cx="736952" cy="8821"/>
+          <a:off x="244819" y="2478795"/>
+          <a:ext cx="532549" cy="18981"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6000,13 +5967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>167569</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>61737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>44097</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>118887</xdr:rowOff>
@@ -6081,13 +6048,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>123472</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>88195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>123722</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>113345</xdr:rowOff>
@@ -6139,16 +6106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>70555</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132575</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>141110</xdr:rowOff>
+      <xdr:rowOff>98150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256048</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>26458</xdr:rowOff>
+      <xdr:rowOff>30724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6163,8 +6130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634999" y="5556249"/>
-          <a:ext cx="1957917" cy="679098"/>
+          <a:off x="419349" y="5680005"/>
+          <a:ext cx="1844118" cy="751929"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6215,7 +6182,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アカウント登録完了画面</a:t>
+            <a:t>アカウント登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -6245,29 +6212,19 @@
             <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>123473</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>123723</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>157442</xdr:rowOff>
@@ -6319,13 +6276,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>123472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>211666</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -6427,65 +6384,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>97015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>22049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50B12CB-60C0-4A70-9369-BBD870C68A03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="47" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2213681" y="6464654"/>
-          <a:ext cx="1455208" cy="1671284"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7577,7 +7475,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>更新</a:t>
+            <a:t>登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -9158,7 +9056,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>更新</a:t>
+            <a:t>登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -9873,15 +9771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>246944</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>149930</xdr:rowOff>
+      <xdr:colOff>156230</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>88194</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>149933</xdr:rowOff>
+      <xdr:colOff>171350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77485</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9894,12 +9792,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:endCxn id="20" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2818694" y="5883980"/>
-          <a:ext cx="984250" cy="3"/>
+        <a:xfrm>
+          <a:off x="2741587" y="5902732"/>
+          <a:ext cx="1164168" cy="388682"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10175,15 +10074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>194028</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>26458</xdr:rowOff>
+      <xdr:colOff>171350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>185209</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:colOff>83155</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10198,8 +10097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3908778" y="5601758"/>
-          <a:ext cx="1991431" cy="590903"/>
+          <a:off x="3905755" y="5907768"/>
+          <a:ext cx="1922638" cy="767292"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10262,13 +10161,16 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>接続エラー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10588,6 +10490,176 @@
         <a:xfrm>
           <a:off x="1143000" y="7921272"/>
           <a:ext cx="1354666" cy="432153"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B5B94C-0DFF-4177-BA23-CAFDDDE687C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5127877" y="4267352"/>
+          <a:ext cx="250" cy="342650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C320F8-04CD-47D4-A25F-417B09C8EAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490358" y="4644068"/>
+          <a:ext cx="1360713" cy="432153"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12614,7 +12686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="74" zoomScaleNormal="75" zoomScaleSheetLayoutView="61" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="116" zoomScaleNormal="75" zoomScaleSheetLayoutView="61" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
@@ -14255,10 +14327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9390EC8D-5EBB-456D-9688-3E1B9D0970B6}">
-  <dimension ref="A1:FQ55"/>
+  <dimension ref="A1:FQ56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="72" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="83" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14271,7 +14343,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12.75" customHeight="1">
+    <row r="1" spans="1:33" ht="12.75" customHeight="1">
       <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
@@ -14304,7 +14376,7 @@
       <c r="AB1" s="64"/>
       <c r="AC1" s="65"/>
     </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1">
+    <row r="2" spans="1:33" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14341,7 +14413,7 @@
       </c>
       <c r="AC2" s="67"/>
     </row>
-    <row r="3" spans="1:35" ht="12.75" customHeight="1">
+    <row r="3" spans="1:33" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -14380,12 +14452,9 @@
       </c>
       <c r="AC3" s="67"/>
     </row>
-    <row r="4" spans="1:35" ht="12.75" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+    <row r="4" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E4" s="40"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -14397,12 +14466,12 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
@@ -14410,10 +14479,11 @@
       <c r="AB4" s="21"/>
       <c r="AC4" s="23"/>
     </row>
-    <row r="5" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+    <row r="5" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -14423,21 +14493,20 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Z5" s="21"/>
+      <c r="Y5" s="21"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
+      <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-    </row>
-    <row r="6" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+    </row>
+    <row r="6" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -14447,21 +14516,21 @@
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
+      <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
+      <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-    </row>
-    <row r="7" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+    </row>
+    <row r="7" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -14471,212 +14540,191 @@
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
+      <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-    </row>
-    <row r="8" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+    </row>
+    <row r="8" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
       <c r="AD8" s="21"/>
       <c r="AE8" s="21"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-    </row>
-    <row r="9" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+    </row>
+    <row r="9" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-    </row>
-    <row r="10" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21" t="s">
+    </row>
+    <row r="10" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="O10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-    </row>
-    <row r="11" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="12"/>
+    </row>
+    <row r="11" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="O11" s="21"/>
+      <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+      <c r="V11" s="12"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
-      <c r="AD11" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-    </row>
-    <row r="12" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="12"/>
+    </row>
+    <row r="12" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="O12" s="21"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="V12" s="12"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-    </row>
-    <row r="13" spans="1:35" ht="12.75" customHeight="1">
-      <c r="C13" s="21" t="s">
+    </row>
+    <row r="13" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="12"/>
+      <c r="F13" s="1"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="O13" s="21"/>
+      <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="V13" s="12"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-    </row>
-    <row r="14" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="12"/>
+    </row>
+    <row r="14" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="12"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="12"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21"/>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-    </row>
-    <row r="15" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+    </row>
+    <row r="15" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="21"/>
-      <c r="Y15" s="21"/>
+      <c r="X15" s="21"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-    </row>
-    <row r="16" spans="1:35" ht="12.75" customHeight="1">
-      <c r="K16" s="21"/>
-      <c r="M16" s="21"/>
+    </row>
+    <row r="16" spans="1:33" ht="12.75" customHeight="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -14692,16 +14740,15 @@
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-    </row>
-    <row r="17" spans="1:35" ht="12.75" customHeight="1">
-      <c r="K17" s="21"/>
-      <c r="M17" s="21"/>
+    </row>
+    <row r="17" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -14720,44 +14767,41 @@
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-    </row>
-    <row r="18" spans="1:35" ht="12.75" customHeight="1">
-      <c r="A18" s="21" t="s">
+    </row>
+    <row r="18" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="F18" s="1"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-    </row>
-    <row r="19" spans="1:35" ht="12.75" customHeight="1">
-      <c r="K19" s="21"/>
-      <c r="M19" s="21"/>
+    </row>
+    <row r="19" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -14769,19 +14813,18 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-    </row>
-    <row r="20" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
+    </row>
+    <row r="20" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -14800,17 +14843,16 @@
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-    </row>
-    <row r="21" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="30"/>
+    </row>
+    <row r="21" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -14819,16 +14861,17 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:35" ht="12.75" customHeight="1">
-      <c r="J22" s="21" t="s">
+    <row r="22" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="M22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -14841,13 +14884,14 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+    <row r="23" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -14860,13 +14904,14 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
+      <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+    <row r="24" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
@@ -14879,13 +14924,14 @@
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
+      <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+    <row r="25" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -14898,13 +14944,14 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+    <row r="26" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -14917,21 +14964,22 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+    <row r="27" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="21" t="s">
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -14939,88 +14987,94 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:35" ht="12.75" customHeight="1">
-      <c r="K28" s="40"/>
+    <row r="28" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="N28" s="40"/>
+      <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+    <row r="29" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
-      <c r="Q29" s="30"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="12.75" customHeight="1">
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+    <row r="30" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
-      <c r="Q30" s="30"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:35" ht="12.75" customHeight="1">
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+    <row r="31" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="30"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="12.75" customHeight="1">
-      <c r="J32" s="40"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+    <row r="32" spans="5:33" ht="12.75" customHeight="1">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="M32" s="40"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="30"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
@@ -15029,147 +15083,136 @@
       <c r="AE32" s="41"/>
       <c r="AF32" s="41"/>
       <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-    </row>
-    <row r="33" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J33" s="40"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+    </row>
+    <row r="33" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="40"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="AA33" s="1"/>
+      <c r="AA33" s="41"/>
       <c r="AB33" s="41"/>
       <c r="AC33" s="41"/>
       <c r="AD33" s="41"/>
       <c r="AE33" s="41"/>
       <c r="AF33" s="41"/>
       <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-    </row>
-    <row r="34" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J34" s="40"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+    </row>
+    <row r="34" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="40"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="41"/>
       <c r="AB34" s="41"/>
       <c r="AC34" s="41"/>
       <c r="AD34" s="41"/>
       <c r="AE34" s="41"/>
       <c r="AF34" s="41"/>
       <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-    </row>
-    <row r="35" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J35" s="40"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+    </row>
+    <row r="35" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="M35" s="40"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
-      <c r="Q35" s="30"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="41"/>
       <c r="AB35" s="41"/>
       <c r="AC35" s="41"/>
       <c r="AD35" s="41"/>
       <c r="AE35" s="41"/>
       <c r="AF35" s="41"/>
       <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-    </row>
-    <row r="36" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J36" s="40"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+    </row>
+    <row r="36" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="M36" s="40"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="37"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="37"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="1"/>
+      <c r="AA36" s="41"/>
       <c r="AB36" s="41"/>
       <c r="AC36" s="41"/>
       <c r="AD36" s="41"/>
       <c r="AE36" s="41"/>
       <c r="AF36" s="41"/>
       <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-    </row>
-    <row r="37" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J37" s="40"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+    </row>
+    <row r="37" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="M37" s="40"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="38"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="41"/>
       <c r="AB37" s="41"/>
       <c r="AC37" s="41"/>
       <c r="AD37" s="41"/>
       <c r="AE37" s="41"/>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-    </row>
-    <row r="38" spans="10:173" ht="12.75" customHeight="1">
-      <c r="J38" s="40"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+    </row>
+    <row r="38" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="M38" s="40"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -15181,69 +15224,65 @@
       <c r="W38" s="21"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="1"/>
+      <c r="AA38" s="41"/>
       <c r="AB38" s="41"/>
       <c r="AC38" s="41"/>
       <c r="AD38" s="41"/>
       <c r="AE38" s="41"/>
       <c r="AF38" s="41"/>
       <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="41"/>
-    </row>
-    <row r="39" spans="10:173" ht="12.75" customHeight="1">
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+    </row>
+    <row r="39" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
       <c r="O39" s="21"/>
-      <c r="P39" s="12"/>
+      <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
+      <c r="AB39" s="41"/>
       <c r="AC39" s="41"/>
       <c r="AD39" s="41"/>
       <c r="AE39" s="41"/>
       <c r="AF39" s="41"/>
       <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-    </row>
-    <row r="40" spans="10:173" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="30" t="s">
+    </row>
+    <row r="40" spans="5:173" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
+      <c r="AB40" s="32"/>
       <c r="AC40" s="32"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
@@ -15379,138 +15418,193 @@
       <c r="FP40" s="6"/>
       <c r="FQ40" s="6"/>
     </row>
-    <row r="41" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z41" s="21"/>
+    <row r="41" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="Y41" s="21"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
+      <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
       <c r="AF41" s="21"/>
       <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-    </row>
-    <row r="42" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z42" s="21"/>
+    </row>
+    <row r="42" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="Y42" s="21"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
+      <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-    </row>
-    <row r="43" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z43" s="21"/>
+    </row>
+    <row r="43" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="Y43" s="21"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
+      <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-    </row>
-    <row r="44" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z44" s="21"/>
+    </row>
+    <row r="44" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="Y44" s="21"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
+      <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
       <c r="AF44" s="21"/>
       <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-    </row>
-    <row r="45" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z45" s="21"/>
+    </row>
+    <row r="45" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="Y45" s="21"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
+      <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
       <c r="AF45" s="21"/>
       <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-    </row>
-    <row r="46" spans="10:173" ht="12.75" customHeight="1">
-      <c r="Z46" s="21"/>
+    </row>
+    <row r="46" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="Y46" s="21"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
+      <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-    </row>
-    <row r="47" spans="10:173" ht="12.75" customHeight="1">
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+    </row>
+    <row r="47" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="10:173" ht="12.75" customHeight="1">
-      <c r="N48" s="12"/>
-      <c r="Q48" s="12" t="s">
+    <row r="48" spans="5:173" ht="12.75" customHeight="1">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="T48" s="12" t="s">
         <v>56</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+    <row r="49" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+    <row r="50" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+    <row r="51" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+    <row r="52" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+    <row r="53" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="14:29" ht="12.75" customHeight="1">
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+    <row r="54" spans="5:29" ht="12.75" customHeight="1">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="14:29" ht="12.75" customHeight="1">
+    <row r="55" spans="5:29" ht="12.75" customHeight="1">
+      <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="5:29" ht="12.75" customHeight="1">
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15535,8 +15629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4EAAFF-0FA8-4C0F-99E0-104BED2CAEF6}">
   <dimension ref="A1:FQ40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B16" zoomScale="82" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="58" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16225,9 +16319,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -16442,8 +16534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEE68D-85C3-4C6B-ADE3-C9B536595088}">
   <dimension ref="A1:FQ54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="51" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="84" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17729,8 +17821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D01E7F-93E9-4EC6-B7B7-BDD46E60375E}">
   <dimension ref="A1:FQ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScale="84" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -18442,9 +18534,10 @@
       <c r="B28" s="40"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="P28" s="12"/>
+      <c r="S28" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="C29" s="21"/>
@@ -18458,9 +18551,8 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="C30" s="21"/>
@@ -18474,9 +18566,8 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1">
       <c r="D31" s="21"/>
@@ -18489,9 +18580,8 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:29" ht="12.75" customHeight="1">
       <c r="A32" s="40"/>
@@ -18506,17 +18596,8 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
       <c r="AA32" s="41"/>
@@ -18536,15 +18617,8 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
       <c r="AA33" s="41"/>
@@ -18565,14 +18639,6 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
       <c r="AA34" s="41"/>
@@ -18900,9 +18966,6 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="Q41" s="21"/>
-      <c r="R41" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
